--- a/DATA_goal/Junction_Flooding_67.xlsx
+++ b/DATA_goal/Junction_Flooding_67.xlsx
@@ -444,36 +444,36 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>41499.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.05</v>
+        <v>0.61</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.85</v>
+        <v>0.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>76.12</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -759,88 +759,88 @@
         <v>41499.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>0</v>
@@ -863,103 +863,103 @@
         <v>41499.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.09</v>
+        <v>2.31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>50.29</v>
+        <v>5.03</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.98</v>
+        <v>4.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>63.16</v>
+        <v>6.32</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.95</v>
+        <v>2.8</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.82</v>
+        <v>1.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.69</v>
+        <v>2.57</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>269.11</v>
+        <v>26.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>50.4</v>
+        <v>5.04</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.78</v>
+        <v>3.38</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.17</v>
+        <v>3.22</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.16</v>
+        <v>2.12</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>57.14</v>
+        <v>5.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.81</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41499.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.65</v>
+        <v>0.97</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.98</v>
+        <v>2.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.45</v>
+        <v>2.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.61</v>
+        <v>4.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.95</v>
+        <v>0.7</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.37</v>
+        <v>14.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.16</v>
+        <v>2.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.9</v>
+        <v>3.79</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41499.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.27</v>
+        <v>3.43</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>28.59</v>
+        <v>2.86</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>47.89</v>
+        <v>4.79</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>19.01</v>
+        <v>1.9</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>180.59</v>
+        <v>18.06</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>34.37</v>
+        <v>3.44</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>23.37</v>
+        <v>2.34</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>43.31</v>
+        <v>4.33</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.15</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41499.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>30.32</v>
+        <v>3.03</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>25.27</v>
+        <v>2.53</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>43.42</v>
+        <v>4.34</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>15.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE7" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>30.42</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>20.43</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF7" s="4" t="n">
-        <v>39.34</v>
+        <v>3.93</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41499.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>31.58</v>
+        <v>3.16</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>26.28</v>
+        <v>2.63</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>44.62</v>
+        <v>4.46</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.51</v>
+        <v>1.75</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>165.63</v>
+        <v>16.56</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>31.67</v>
+        <v>3.17</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.3</v>
+        <v>2.13</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>21.7</v>
+        <v>2.17</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>40.4</v>
+        <v>4.04</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41499.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>23.64</v>
+        <v>2.36</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>34.73</v>
+        <v>3.47</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="R9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>122.12</v>
+        <v>12.21</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>23.73</v>
+        <v>2.37</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>15.95</v>
+        <v>1.59</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>16.74</v>
+        <v>1.67</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>31.52</v>
+        <v>3.15</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>9.75</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41499.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="R10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>40.87</v>
+        <v>4.09</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_67.xlsx
+++ b/DATA_goal/Junction_Flooding_67.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41499.34027777778</v>
+        <v>40751.46527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.39</v>
+        <v>0.57</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O2" s="4" t="n">
+      <c r="AF2" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>1.19</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41499.34722222222</v>
+        <v>40751.47222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.35</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.55</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.06</v>
+        <v>1.92</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.01</v>
+        <v>1.33</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.21</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.51</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.73</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.34</v>
+        <v>2.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41499.35416666666</v>
+        <v>40751.47916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.31</v>
+        <v>0.6</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.74</v>
+        <v>0.46</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>26.91</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>5.71</v>
+        <v>1.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.22</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.08</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41499.36111111111</v>
+        <v>40751.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.16</v>
+        <v>4.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.64</v>
+        <v>17.56</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.82</v>
+        <v>3.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.88</v>
+        <v>2.26</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.79</v>
+        <v>3.97</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41499.36805555555</v>
+        <v>40751.49304398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.57</v>
+        <v>6.38</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.18</v>
+        <v>4.84</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.43</v>
+        <v>13.26</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.86</v>
+        <v>11.12</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.28</v>
+        <v>4.64</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.79</v>
+        <v>22.61</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.85</v>
+        <v>3.69</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.28</v>
+        <v>5.06</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.38</v>
+        <v>5.46</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.47</v>
+        <v>5.93</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.4</v>
+        <v>1.83</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.23</v>
+        <v>4.74</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.75</v>
+        <v>7.03</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.02</v>
+        <v>3.82</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>18.06</v>
+        <v>66.95</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.44</v>
+        <v>13.59</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.14</v>
+        <v>4.67</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.31</v>
+        <v>9.33</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.23</v>
+        <v>4.7</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.34</v>
+        <v>10.77</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1</v>
+        <v>3.95</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.88</v>
+        <v>3.57</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.06</v>
+        <v>4.55</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.44</v>
+        <v>5.75</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.33</v>
+        <v>20.82</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.65</v>
+        <v>2.46</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41499.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41499.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41499.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41499.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41499.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>28.66</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>23.81</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>149.53</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>28.62</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>11.84</v>
+        <v>5.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_67.xlsx
+++ b/DATA_goal/Junction_Flooding_67.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.46527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.73</v>
+        <v>37.26</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.47222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.85</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.09</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.45</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.55</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.1</v>
+        <v>100.96</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.21</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="W3" s="4" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.33</v>
       </c>
-      <c r="X3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>2.1</v>
+        <v>21.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.47916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.7</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.11</v>
+        <v>61.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.28</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.14</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.3</v>
+        <v>33.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.75</v>
+        <v>27.51</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.4</v>
+        <v>43.95</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.44</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.56</v>
+        <v>175.6</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.32</v>
+        <v>33.23</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.65</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.75</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.97</v>
+        <v>39.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_67.xlsx
+++ b/DATA_goal/Junction_Flooding_67.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,100 +655,100 @@
         <v>40751.46527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.95</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.68</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.06</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.27</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.97</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.72</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.97</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.58</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.26</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.6</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.25</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.16</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.04</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.74</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.9</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.66</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.2</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>2.83</v>
@@ -759,103 +759,103 @@
         <v>40751.47222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.49</v>
+        <v>9.492000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.27</v>
+        <v>7.266</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.144</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.85</v>
+        <v>18.854</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.09</v>
+        <v>16.086</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.45</v>
+        <v>6.452</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>23.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.56</v>
+        <v>10.558</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.55</v>
+        <v>5.548</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.3</v>
+        <v>7.305</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>8.039999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.93</v>
+        <v>8.929</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.9</v>
+        <v>2.902</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>6.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.07</v>
+        <v>10.071</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.43</v>
+        <v>5.429</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.521</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>100.96</v>
+        <v>100.961</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.21</v>
+        <v>19.205</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.09</v>
+        <v>7.085</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.33</v>
+        <v>13.326</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.56</v>
+        <v>6.555</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.07</v>
+        <v>12.073</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.63</v>
+        <v>5.628</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.14</v>
+        <v>5.139</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.27</v>
+        <v>7.266</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.456</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.01</v>
+        <v>21.006</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.501</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.92</v>
+        <v>7.918</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.47916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6</v>
+        <v>6.001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.58</v>
+        <v>4.584</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.94</v>
+        <v>11.935</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.18</v>
+        <v>10.177</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.07</v>
+        <v>4.065</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>18.7</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.69</v>
+        <v>6.689</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>3.57</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.64</v>
+        <v>4.636</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.06</v>
+        <v>5.062</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.62</v>
+        <v>5.617</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.86</v>
+        <v>1.863</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.26</v>
+        <v>4.264</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.43</v>
+        <v>6.431</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.38</v>
+        <v>3.382</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.082</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>61.1</v>
+        <v>61.098</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.28</v>
+        <v>12.282</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.45</v>
+        <v>4.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.52</v>
+        <v>8.523999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.17</v>
+        <v>4.166</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0.59</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.201000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.58</v>
+        <v>3.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.3</v>
+        <v>3.303</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.57</v>
+        <v>4.567</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>5.33</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.14</v>
+        <v>17.144</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.2</v>
+        <v>2.198</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.99</v>
+        <v>4.989</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.72</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.49304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_67.xlsx
+++ b/DATA_goal/Junction_Flooding_67.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,103 +967,207 @@
         <v>40751.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.55</v>
+        <v>15.547</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.73</v>
+        <v>11.733</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.01</v>
+        <v>33.014</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.51</v>
+        <v>27.513</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.95</v>
+        <v>43.952</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>18.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.67</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.47</v>
+        <v>12.465</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.44</v>
+        <v>13.436</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.4</v>
+        <v>14.404</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.17</v>
+        <v>4.175</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.85</v>
+        <v>11.849</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.17</v>
+        <v>17.168</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.69</v>
+        <v>9.685</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.6</v>
+        <v>175.599</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.23</v>
+        <v>33.232</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.31</v>
+        <v>11.307</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.65</v>
+        <v>22.645</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.72</v>
+        <v>11.716</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.58</v>
+        <v>1.577</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.89</v>
+        <v>21.893</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.75</v>
+        <v>9.752000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.682</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.68</v>
+        <v>10.682</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.13</v>
+        <v>14.133</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.72</v>
+        <v>39.723</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.2</v>
+        <v>6.196</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.49304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_67.xlsx
+++ b/DATA_goal/Junction_Flooding_67.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,207 +967,103 @@
         <v>40751.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.547</v>
+        <v>15.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.733</v>
+        <v>11.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.014</v>
+        <v>33.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.513</v>
+        <v>27.51</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.952</v>
+        <v>43.95</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>18.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.675000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.465</v>
+        <v>12.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.436</v>
+        <v>13.44</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.404</v>
+        <v>14.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.175</v>
+        <v>4.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.849</v>
+        <v>11.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.168</v>
+        <v>17.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.685</v>
+        <v>9.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.599</v>
+        <v>175.6</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.232</v>
+        <v>33.23</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.307</v>
+        <v>11.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.645</v>
+        <v>22.65</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.716</v>
+        <v>11.72</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.577</v>
+        <v>1.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.893</v>
+        <v>21.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.752000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.682</v>
+        <v>8.68</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.682</v>
+        <v>10.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.133</v>
+        <v>14.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.723</v>
+        <v>39.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.196</v>
+        <v>6.2</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.72</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.49304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.51</v>
       </c>
     </row>
   </sheetData>
